--- a/Java8/MCQs.xlsx
+++ b/Java8/MCQs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8A5E7D-0498-4B41-B17A-F68FFA0DAFA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA095E3-10BE-42A5-861C-0E6AD719FA77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Java8/MCQs.xlsx
+++ b/Java8/MCQs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA095E3-10BE-42A5-861C-0E6AD719FA77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45A71A0-640F-4865-91A5-553995B1AE01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
